--- a/element_info_data/element_infos.xlsx
+++ b/element_info_data/element_infos.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="login_page" sheetId="1" r:id="rId1"/>
-    <sheet name="main_page" sheetId="2" r:id="rId2"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>元素变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,29 @@
   </si>
   <si>
     <t>zentao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_page</t>
+  </si>
+  <si>
+    <t>bug_ling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[text()=%s]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -504,9 +527,10 @@
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,16 +538,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -531,16 +558,19 @@
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -548,16 +578,17 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -565,36 +596,62 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
       <formula1>"id,name,css,xpath,linktext"</formula1>
     </dataValidation>
   </dataValidations>
@@ -608,7 +665,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/element_info_data/element_infos.xlsx
+++ b/element_info_data/element_infos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>元素变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>//a[text()=%s]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_page</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +524,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -558,7 +562,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>

--- a/element_info_data/element_infos.xlsx
+++ b/element_info_data/element_infos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>元素变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>我的地盘链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>//a[@text="我的地盘"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userNav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username_inputbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password_inputbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaiyuan_click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击开原版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zentao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_page</t>
+  </si>
+  <si>
+    <t>login_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>myzone_link</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -46,107 +134,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我的地盘链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>//a[@text="我的地盘"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userNav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>submit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username_inputbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password_inputbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kaiyuan_click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击开原版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zentao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_page</t>
-  </si>
-  <si>
-    <t>bug_ling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bug链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bug_page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//a[text()=%s]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_page</t>
+    <t>main_page</t>
+  </si>
+  <si>
+    <t>main_page</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -542,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -556,19 +547,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1">
         <v>5</v>
@@ -576,37 +567,37 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
@@ -614,48 +605,28 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5">
       <formula1>"id,name,css,xpath,linktext"</formula1>
     </dataValidation>
   </dataValidations>
@@ -666,21 +637,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,53 +660,71 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>3</v>
       </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
       <formula1>"id,name,css,xpath,linktext"</formula1>
     </dataValidation>
   </dataValidations>

--- a/element_info_data/element_infos.xlsx
+++ b/element_info_data/element_infos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>元素变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>main_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quit_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@href="/zentao/user-logout.html"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +652,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -713,7 +725,24 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
@@ -724,7 +753,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
       <formula1>"id,name,css,xpath,linktext"</formula1>
     </dataValidation>
   </dataValidations>
